--- a/config/foxconfig/task.xlsx
+++ b/config/foxconfig/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\FoxCard\config\foxconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099E3B8-26B2-4DF2-B818-3B3D5E3E75DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042147E-B5C7-4C98-B270-CC91A7F26A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3199,8 +3199,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>

--- a/config/foxconfig/task.xlsx
+++ b/config/foxconfig/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\FoxCard\config\foxconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042147E-B5C7-4C98-B270-CC91A7F26A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A095FE76-AE7E-4176-B700-B0CE397AA966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3199,8 +3199,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349:G355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -16968,7 +16968,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -22550,7 +22550,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A5" sqref="A5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
